--- a/tabboy/avatar/avatar_element.xlsx
+++ b/tabboy/avatar/avatar_element.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="11740"/>
+    <workbookView windowWidth="28000" windowHeight="12340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="67">
   <si>
     <t>ID</t>
   </si>
@@ -184,12 +184,6 @@
     <t>[{"key":"Au1BrowlnnerUp","value":"100"},{"key":"Eye_SFFZ_L","value":"30"},{"key":"Nose_PYQH_H","value":"0"},{"key":"Mouth_SFBM_H","value":"100"}]</t>
   </si>
   <si>
-    <t>shoes_002</t>
-  </si>
-  <si>
-    <t>shoes_002.png</t>
-  </si>
-  <si>
     <t>bag_002</t>
   </si>
   <si>
@@ -212,6 +206,15 @@
   </si>
   <si>
     <t>clothes_002.png</t>
+  </si>
+  <si>
+    <t>胡子</t>
+  </si>
+  <si>
+    <t>mustache_001</t>
+  </si>
+  <si>
+    <t>mustache_001.png</t>
   </si>
 </sst>
 </file>
@@ -262,7 +265,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,6 +308,98 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -283,127 +407,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -414,61 +417,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,121 +591,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,23 +629,41 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,9 +685,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,37 +709,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,148 +728,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1214,7 +1217,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1584,35 +1587,35 @@
       </c>
     </row>
     <row r="18" ht="17.55" spans="1:7">
-      <c r="A18" s="1">
-        <v>20</v>
+      <c r="A18" s="4">
+        <v>21</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" ht="17.55" spans="1:7">
       <c r="A19" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>58</v>
@@ -1627,13 +1630,13 @@
     </row>
     <row r="20" ht="17.55" spans="1:7">
       <c r="A20" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>60</v>
@@ -1648,13 +1651,13 @@
     </row>
     <row r="21" ht="17.55" spans="1:7">
       <c r="A21" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>62</v>
@@ -1669,35 +1672,35 @@
     </row>
     <row r="22" ht="17.55" spans="1:7">
       <c r="A22" s="4">
-        <v>24</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G22" s="4"/>
     </row>
     <row r="23" ht="17.55" spans="1:7">
       <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" ht="17.55" spans="1:7">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1706,7 +1709,7 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" ht="17.55" spans="1:7">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
